--- a/test-data-xlsx/output/example-01.xlsx
+++ b/test-data-xlsx/output/example-01.xlsx
@@ -398,11 +398,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Test Table on Sheet 1</v>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="str">
         <v xml:space="preserve">Example Cell A2 </v>
@@ -447,6 +452,11 @@
       </c>
       <c r="G3">
         <v>600</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="str">
+        <v>Hello World!</v>
       </c>
     </row>
   </sheetData>
@@ -455,18 +465,23 @@
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A2:G23"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G23"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Test Tabelle on Sheet 2</v>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="str">
         <v>Head 1</v>
@@ -640,7 +655,7 @@
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A2:E11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E11"/>
   </ignoredErrors>
 </worksheet>
 </file>